--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F11ABB-63E0-43BC-AF92-82E97E366D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C74B5A0-DDB1-405A-B43F-9C134D0AF7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -455,22 +455,34 @@
 5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)</t>
   </si>
   <si>
-    <t>1. Database (User Data &amp; Logging)
+    <t>Logs - Clear</t>
+  </si>
+  <si>
+    <t>Both roles can perform the same functions</t>
+  </si>
+  <si>
+    <t>1. Database (User Data)</t>
+  </si>
+  <si>
+    <t>1. Database (Logs)</t>
+  </si>
+  <si>
+    <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
 3. java.security - Encryption</t>
   </si>
   <si>
-    <t>1. Database (User Data &amp; Logging)
+    <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
 3. java.security - Decryption</t>
   </si>
   <si>
-    <t>1. Database (User Data &amp; Logging)
+    <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
 3. java.security - Encryption &amp; Decryption</t>
   </si>
   <si>
-    <t>Logs - Clear</t>
+    <t>Requires Admin user to enter PW</t>
   </si>
 </sst>
 </file>
@@ -575,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -643,15 +655,6 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -749,7 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -775,89 +778,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1150,40 +1156,40 @@
   <dimension ref="A1:CZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
     <col min="17" max="102" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="105" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:104" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:104" s="14" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:104" s="10" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1228,8 +1234,8 @@
       <c r="O2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>138</v>
+      <c r="P2" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>14</v>
@@ -1497,179 +1503,185 @@
       </c>
     </row>
     <row r="3" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="26" t="s">
         <v>126</v>
       </c>
       <c r="CZ3" s="2"/>
     </row>
-    <row r="4" spans="1:104" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="13"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="35"/>
       <c r="CZ4" s="2"/>
     </row>
     <row r="5" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="13"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="35"/>
       <c r="CZ5" s="2"/>
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="24" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="18" t="s">
+      <c r="I6" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="35"/>
       <c r="CZ6" s="2"/>
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="13"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="35"/>
       <c r="CZ7" s="2"/>
     </row>
-    <row r="8" spans="1:104" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24" t="s">
+      <c r="J8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="23"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="13" t="s">
+        <v>142</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1760,113 +1772,113 @@
       <c r="CZ8" s="4"/>
     </row>
     <row r="9" spans="1:104" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25"/>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25"/>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25"/>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25"/>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="25"/>
-      <c r="CM9" s="25"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
-      <c r="CP9" s="25"/>
-      <c r="CQ9" s="25"/>
-      <c r="CR9" s="25"/>
-      <c r="CS9" s="25"/>
-      <c r="CT9" s="25"/>
-      <c r="CU9" s="25"/>
-      <c r="CV9" s="25"/>
-      <c r="CW9" s="25"/>
-      <c r="CX9" s="25"/>
-      <c r="CY9" s="25"/>
-      <c r="CZ9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16"/>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16"/>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16"/>
+      <c r="CR9" s="16"/>
+      <c r="CS9" s="16"/>
+      <c r="CT9" s="16"/>
+      <c r="CU9" s="16"/>
+      <c r="CV9" s="16"/>
+      <c r="CW9" s="16"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
     </row>
     <row r="10" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="18" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1982,24 +1994,33 @@
       <c r="CZ10" s="7"/>
     </row>
     <row r="11" spans="1:104" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2115,7 +2136,7 @@
       <c r="CZ12" s="7"/>
     </row>
     <row r="13" spans="1:104" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2132,113 +2153,113 @@
       </c>
     </row>
     <row r="14" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="25"/>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="25"/>
-      <c r="BR14" s="25"/>
-      <c r="BS14" s="25"/>
-      <c r="BT14" s="25"/>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="BX14" s="25"/>
-      <c r="BY14" s="25"/>
-      <c r="BZ14" s="25"/>
-      <c r="CA14" s="25"/>
-      <c r="CB14" s="25"/>
-      <c r="CC14" s="25"/>
-      <c r="CD14" s="25"/>
-      <c r="CE14" s="25"/>
-      <c r="CF14" s="25"/>
-      <c r="CG14" s="25"/>
-      <c r="CH14" s="25"/>
-      <c r="CI14" s="25"/>
-      <c r="CJ14" s="25"/>
-      <c r="CK14" s="25"/>
-      <c r="CL14" s="25"/>
-      <c r="CM14" s="25"/>
-      <c r="CN14" s="25"/>
-      <c r="CO14" s="25"/>
-      <c r="CP14" s="25"/>
-      <c r="CQ14" s="25"/>
-      <c r="CR14" s="25"/>
-      <c r="CS14" s="25"/>
-      <c r="CT14" s="25"/>
-      <c r="CU14" s="25"/>
-      <c r="CV14" s="25"/>
-      <c r="CW14" s="25"/>
-      <c r="CX14" s="25"/>
-      <c r="CY14" s="25"/>
-      <c r="CZ14" s="25"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
+      <c r="CV14" s="16"/>
+      <c r="CW14" s="16"/>
+      <c r="CX14" s="16"/>
+      <c r="CY14" s="16"/>
+      <c r="CZ14" s="16"/>
     </row>
     <row r="15" spans="1:104" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2354,34 +2375,27 @@
       <c r="CZ15" s="8"/>
     </row>
     <row r="16" spans="1:104" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N5"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
@@ -2395,6 +2409,14 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J3:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C74B5A0-DDB1-405A-B43F-9C134D0AF7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94EC0E7-993A-4837-A7CF-568D40F89D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="154">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -360,9 +360,6 @@
 buttons that are associated with the user's role.</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Password hashes are made of both username, password, and some set of characters.</t>
   </si>
   <si>
@@ -378,11 +375,6 @@
     <t>Users - Delete</t>
   </si>
   <si>
-    <t>JTextField Username
-JPasswordField Password
-JPasswordField Confpass</t>
-  </si>
-  <si>
     <t>Products - Add/Edit/Delete</t>
   </si>
   <si>
@@ -402,10 +394,6 @@
   </si>
   <si>
     <t>View Home Page</t>
-  </si>
-  <si>
-    <t>Page Buttons (Left Panel)
-Control Buttons (Top Panel)</t>
   </si>
   <si>
     <t>Logout</t>
@@ -439,13 +427,6 @@
   </si>
   <si>
     <t>Users - Change PW</t>
-  </si>
-  <si>
-    <t>1. Sanitation - Re-encode inputs (username &amp; password) to UTF-8
-2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
-3. Disallow special characters associated with SQL statements
-4. Hashing - SHA-384 with salt of inputted username &amp; password.
-5. Decryption - Retrieving and decrypting encrypted hash for use in input comparison.</t>
   </si>
   <si>
     <t>1. Sanitation - Re-encode inputs (username &amp; password) to UTF-8
@@ -461,12 +442,6 @@
     <t>Both roles can perform the same functions</t>
   </si>
   <si>
-    <t>1. Database (User Data)</t>
-  </si>
-  <si>
-    <t>1. Database (Logs)</t>
-  </si>
-  <si>
     <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
 3. java.security - Encryption</t>
@@ -474,15 +449,89 @@
   <si>
     <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
-3. java.security - Decryption</t>
+3. java.security - Encryption &amp; Decryption</t>
+  </si>
+  <si>
+    <t>Requires Admin user to enter PW</t>
+  </si>
+  <si>
+    <t>1. JPasswordField - Admin Password
+2. JPasswordField - Password
+3. JPasswordField - Confirm Password</t>
+  </si>
+  <si>
+    <t>1. JTextField - Username
+2. JPasswordField - Password
+3. JPasswordField - Confpass</t>
+  </si>
+  <si>
+    <t>1. Page Buttons (Left Panel)
+2. Control Buttons (Top Panel)</t>
+  </si>
+  <si>
+    <t>The user will be asked to logout before exiting should the close/exit button is clicked while logged in. This is to establish proper login/logout processes which is logged in the DB.</t>
+  </si>
+  <si>
+    <t>1. Database (User Data)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Encrypted Session Data</t>
   </si>
   <si>
     <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
-3. java.security - Encryption &amp; Decryption</t>
-  </si>
-  <si>
-    <t>Requires Admin user to enter PW</t>
+3. java.security - Decryption
+4. Encrypted Session</t>
+  </si>
+  <si>
+    <t>1. Database (Logs)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Database (Products)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Database (History)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Only enabled if Session data states that the current user role is an Admin.</t>
+  </si>
+  <si>
+    <t>2. If role in Session data is not equal to 5, the panel will be set to Login and Session will be reset.</t>
+  </si>
+  <si>
+    <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
+2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
+3. Disallow special characters associated with SQL statements
+4. Hashing - SHA-384 of inputted username &amp; password.
+5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
+6. Will require Admin password before changes to DB are executed.</t>
+  </si>
+  <si>
+    <t>1. History of products viewed are based on role of the user in the Session data.
+2. Manager role user accounts will be able to view all product history.
+3. Client role user accounts will only be able to view their own product history.</t>
+  </si>
+  <si>
+    <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
+2. Disallow special characters associated with SQL statements</t>
+  </si>
+  <si>
+    <t>Session Tampering</t>
+  </si>
+  <si>
+    <t>1. SQL Injection
+2. Session Tampering</t>
+  </si>
+  <si>
+    <t>1. Sanitation - Re-encode inputs (username &amp; password) to UTF-8
+2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
+3. Disallow special characters associated with SQL statements
+4. Hashing - SHA-384 with salt of inputted username &amp; password.
+5. Decryption - Retrieving and decrypting encrypted hashes for use in input comparison.</t>
   </si>
 </sst>
 </file>
@@ -826,6 +875,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -835,34 +905,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,9 +1204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1165,16 +1214,16 @@
     <col min="1" max="1" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
     <col min="17" max="102" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1183,8 +1232,8 @@
     <col min="105" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:104" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1199,43 +1248,43 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="O2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>14</v>
@@ -1507,49 +1556,49 @@
         <v>4</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>126</v>
+      <c r="C3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="CZ3" s="2"/>
     </row>
@@ -1557,130 +1606,130 @@
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="35"/>
+      <c r="B4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="37"/>
       <c r="CZ4" s="2"/>
     </row>
     <row r="5" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="35"/>
+      <c r="P5" s="37"/>
       <c r="CZ5" s="2"/>
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="35"/>
+      <c r="O6" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="37"/>
       <c r="CZ6" s="2"/>
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="35"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="37"/>
       <c r="CZ7" s="2"/>
     </row>
     <row r="8" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="O8" s="33"/>
       <c r="P8" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1882,22 +1931,32 @@
         <v>102</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1993,33 +2052,39 @@
       <c r="CY10" s="7"/>
       <c r="CZ10" s="7"/>
     </row>
-    <row r="11" spans="1:104" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:104" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>104</v>
       </c>
@@ -2030,22 +2095,44 @@
         <v>107</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -2135,30 +2222,50 @@
       <c r="CY12" s="7"/>
       <c r="CZ12" s="7"/>
     </row>
-    <row r="13" spans="1:104" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -2258,23 +2365,25 @@
       <c r="CY14" s="16"/>
       <c r="CZ14" s="16"/>
     </row>
-    <row r="15" spans="1:104" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:104" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -2396,6 +2505,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N5"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
@@ -2412,11 +2526,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94EC0E7-993A-4837-A7CF-568D40F89D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4170F-3534-4781-9079-DE290E8D45C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Password hashes are made of both username, password, and some set of characters.</t>
   </si>
   <si>
-    <t>Disabling of certain buttons on the left-hand panel based on role of user (inherited by other sub pages since it is implemented at Frame level).</t>
-  </si>
-  <si>
     <t>Users - Change Role</t>
   </si>
   <si>
@@ -429,13 +426,6 @@
     <t>Users - Change PW</t>
   </si>
   <si>
-    <t>1. Sanitation - Re-encode inputs (username &amp; password) to UTF-8
-2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
-3. Disallow special characters associated with SQL statements
-4. Hashing - SHA-384 of inputted username &amp; password.
-5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)</t>
-  </si>
-  <si>
     <t>Logs - Clear</t>
   </si>
   <si>
@@ -447,11 +437,6 @@
 3. java.security - Encryption</t>
   </si>
   <si>
-    <t>1. Database (User Data &amp; Logs)
-2. java.security - Hashing
-3. java.security - Encryption &amp; Decryption</t>
-  </si>
-  <si>
     <t>Requires Admin user to enter PW</t>
   </si>
   <si>
@@ -479,28 +464,52 @@
     <t>1. Encrypted Session Data</t>
   </si>
   <si>
+    <t>1. Database (Logs)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Database (Products)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Database (History)
+2. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>1. Only enabled if Session data states that the current user role is an Admin.</t>
+  </si>
+  <si>
+    <t>2. If role in Session data is not equal to 5, the panel will be set to Login and Session will be reset.</t>
+  </si>
+  <si>
+    <t>Session Tampering</t>
+  </si>
+  <si>
+    <t>1. SQL Injection
+2. Session Tampering</t>
+  </si>
+  <si>
+    <t>Unlocked accounts are set back to Client role. Admin must re-instate the user account's role before deployment/use.</t>
+  </si>
+  <si>
     <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
 3. java.security - Decryption
-4. Encrypted Session</t>
-  </si>
-  <si>
-    <t>1. Database (Logs)
+4. Encrypted Session Data</t>
+  </si>
+  <si>
+    <t>Setting (i.e., downgrading) or deleting of own role is disallowed.</t>
+  </si>
+  <si>
+    <t>1. Disabling of certain buttons on the left-hand panel based on role of user (inherited by other sub pages since it is implemented at Frame level).</t>
+  </si>
+  <si>
+    <t>1. Database (User Data &amp; Logs)
 2. Encrypted Session Data</t>
   </si>
   <si>
-    <t>1. Database (Products)
+    <t>1. Database (Product &amp; Logs)
 2. Encrypted Session Data</t>
-  </si>
-  <si>
-    <t>1. Database (History)
-2. Encrypted Session Data</t>
-  </si>
-  <si>
-    <t>1. Only enabled if Session data states that the current user role is an Admin.</t>
-  </si>
-  <si>
-    <t>2. If role in Session data is not equal to 5, the panel will be set to Login and Session will be reset.</t>
   </si>
   <si>
     <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
@@ -508,30 +517,34 @@
 3. Disallow special characters associated with SQL statements
 4. Hashing - SHA-384 of inputted username &amp; password.
 5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
-6. Will require Admin password before changes to DB are executed.</t>
-  </si>
-  <si>
-    <t>1. History of products viewed are based on role of the user in the Session data.
-2. Manager role user accounts will be able to view all product history.
-3. Client role user accounts will only be able to view their own product history.</t>
+6. Will require Admin password before changes to DB are executed.
+7. Use of Prepared Statements.
+8. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. Will require Admin password before changes to DB are executed.
+2. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. Role based viewing/data access</t>
   </si>
   <si>
     <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
-2. Disallow special characters associated with SQL statements</t>
-  </si>
-  <si>
-    <t>Session Tampering</t>
-  </si>
-  <si>
-    <t>1. SQL Injection
-2. Session Tampering</t>
-  </si>
-  <si>
-    <t>1. Sanitation - Re-encode inputs (username &amp; password) to UTF-8
 2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
 3. Disallow special characters associated with SQL statements
-4. Hashing - SHA-384 with salt of inputted username &amp; password.
-5. Decryption - Retrieving and decrypting encrypted hashes for use in input comparison.</t>
+4. Hashing - SHA-384 of inputted username &amp; password.
+5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
+7. Use of Prepared Statements.
+8. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. Sanitation - Re-encode inputs to UTF-8
+2. Disallow special characters associated with SQL statements
+3. Use of Prepared Statements.
+4. Logging of Events/Actions</t>
   </si>
 </sst>
 </file>
@@ -801,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -815,12 +828,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -830,9 +837,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -875,6 +879,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -896,22 +912,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,14 +1214,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
@@ -1219,517 +1229,522 @@
     <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" style="1" customWidth="1"/>
     <col min="17" max="102" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="105" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:104" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:104" s="10" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:104" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AR2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AT2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AU2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AV2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AW2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AX2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="5" t="s">
+      <c r="AY2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="5" t="s">
+      <c r="AZ2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="5" t="s">
+      <c r="BA2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BB2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BC2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BD2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BE2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BF2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BG2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BH2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BI2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BJ2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BK2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BL2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="BM2" s="5" t="s">
+      <c r="BM2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="BN2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="BO2" s="5" t="s">
+      <c r="BO2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="BP2" s="5" t="s">
+      <c r="BP2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="BQ2" s="5" t="s">
+      <c r="BQ2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="BR2" s="5" t="s">
+      <c r="BR2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="BS2" s="5" t="s">
+      <c r="BS2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="BT2" s="5" t="s">
+      <c r="BT2" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="BU2" s="5" t="s">
+      <c r="BU2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="BV2" s="5" t="s">
+      <c r="BV2" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="BW2" s="5" t="s">
+      <c r="BW2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="BX2" s="5" t="s">
+      <c r="BX2" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="BY2" s="5" t="s">
+      <c r="BY2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="BZ2" s="5" t="s">
+      <c r="BZ2" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="CA2" s="5" t="s">
+      <c r="CA2" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="CB2" s="5" t="s">
+      <c r="CB2" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CC2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="CD2" s="5" t="s">
+      <c r="CD2" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="CE2" s="5" t="s">
+      <c r="CE2" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CF2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="CG2" s="5" t="s">
+      <c r="CG2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CH2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="CI2" s="5" t="s">
+      <c r="CI2" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CJ2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="5" t="s">
+      <c r="CK2" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="CL2" s="5" t="s">
+      <c r="CL2" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="CM2" s="5" t="s">
+      <c r="CM2" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="CN2" s="5" t="s">
+      <c r="CN2" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="CO2" s="5" t="s">
+      <c r="CO2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="CP2" s="5" t="s">
+      <c r="CP2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="CQ2" s="5" t="s">
+      <c r="CQ2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="CR2" s="5" t="s">
+      <c r="CR2" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="CS2" s="5" t="s">
+      <c r="CS2" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="CT2" s="5" t="s">
+      <c r="CT2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="CU2" s="5" t="s">
+      <c r="CU2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="CV2" s="5" t="s">
+      <c r="CV2" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="CW2" s="5" t="s">
+      <c r="CW2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="CX2" s="5" t="s">
+      <c r="CX2" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="CY2" s="5" t="s">
+      <c r="CY2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="CZ2" s="6" t="s">
+      <c r="CZ2" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>123</v>
+      <c r="E3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="CZ3" s="2"/>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="37"/>
+      <c r="B4" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
       <c r="CZ4" s="2"/>
     </row>
     <row r="5" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="37"/>
+      <c r="E5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="23"/>
       <c r="CZ5" s="2"/>
     </row>
     <row r="6" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P6" s="37"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="P6" s="23"/>
       <c r="CZ6" s="2"/>
     </row>
     <row r="7" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="37"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23"/>
       <c r="CZ7" s="2"/>
     </row>
     <row r="8" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="13" t="s">
-        <v>135</v>
+      <c r="B8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="22"/>
+      <c r="P8" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1821,695 +1836,724 @@
       <c r="CZ8" s="4"/>
     </row>
     <row r="9" spans="1:104" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16"/>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16"/>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16"/>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
-      <c r="BR9" s="16"/>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16"/>
-      <c r="BW9" s="16"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16"/>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16"/>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="16"/>
-      <c r="CM9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
-      <c r="CP9" s="16"/>
-      <c r="CQ9" s="16"/>
-      <c r="CR9" s="16"/>
-      <c r="CS9" s="16"/>
-      <c r="CT9" s="16"/>
-      <c r="CU9" s="16"/>
-      <c r="CV9" s="16"/>
-      <c r="CW9" s="16"/>
-      <c r="CX9" s="16"/>
-      <c r="CY9" s="16"/>
-      <c r="CZ9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13"/>
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13"/>
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13"/>
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="13"/>
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="13"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13"/>
+      <c r="CU9" s="13"/>
+      <c r="CV9" s="13"/>
+      <c r="CW9" s="13"/>
+      <c r="CX9" s="13"/>
+      <c r="CY9" s="13"/>
+      <c r="CZ9" s="13"/>
     </row>
     <row r="10" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
-      <c r="BQ10" s="7"/>
-      <c r="BR10" s="7"/>
-      <c r="BS10" s="7"/>
-      <c r="BT10" s="7"/>
-      <c r="BU10" s="7"/>
-      <c r="BV10" s="7"/>
-      <c r="BW10" s="7"/>
-      <c r="BX10" s="7"/>
-      <c r="BY10" s="7"/>
-      <c r="BZ10" s="7"/>
-      <c r="CA10" s="7"/>
-      <c r="CB10" s="7"/>
-      <c r="CC10" s="7"/>
-      <c r="CD10" s="7"/>
-      <c r="CE10" s="7"/>
-      <c r="CF10" s="7"/>
-      <c r="CG10" s="7"/>
-      <c r="CH10" s="7"/>
-      <c r="CI10" s="7"/>
-      <c r="CJ10" s="7"/>
-      <c r="CK10" s="7"/>
-      <c r="CL10" s="7"/>
-      <c r="CM10" s="7"/>
-      <c r="CN10" s="7"/>
-      <c r="CO10" s="7"/>
-      <c r="CP10" s="7"/>
-      <c r="CQ10" s="7"/>
-      <c r="CR10" s="7"/>
-      <c r="CS10" s="7"/>
-      <c r="CT10" s="7"/>
-      <c r="CU10" s="7"/>
-      <c r="CV10" s="7"/>
-      <c r="CW10" s="7"/>
-      <c r="CX10" s="7"/>
-      <c r="CY10" s="7"/>
-      <c r="CZ10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+      <c r="BX10" s="5"/>
+      <c r="BY10" s="5"/>
+      <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
+      <c r="CB10" s="5"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5"/>
+      <c r="CK10" s="5"/>
+      <c r="CL10" s="5"/>
+      <c r="CM10" s="5"/>
+      <c r="CN10" s="5"/>
+      <c r="CO10" s="5"/>
+      <c r="CP10" s="5"/>
+      <c r="CQ10" s="5"/>
+      <c r="CR10" s="5"/>
+      <c r="CS10" s="5"/>
+      <c r="CT10" s="5"/>
+      <c r="CU10" s="5"/>
+      <c r="CV10" s="5"/>
+      <c r="CW10" s="5"/>
+      <c r="CX10" s="5"/>
+      <c r="CY10" s="5"/>
+      <c r="CZ10" s="5"/>
     </row>
     <row r="11" spans="1:104" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="5"/>
+      <c r="BW12" s="5"/>
+      <c r="BX12" s="5"/>
+      <c r="BY12" s="5"/>
+      <c r="BZ12" s="5"/>
+      <c r="CA12" s="5"/>
+      <c r="CB12" s="5"/>
+      <c r="CC12" s="5"/>
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
+      <c r="CH12" s="5"/>
+      <c r="CI12" s="5"/>
+      <c r="CJ12" s="5"/>
+      <c r="CK12" s="5"/>
+      <c r="CL12" s="5"/>
+      <c r="CM12" s="5"/>
+      <c r="CN12" s="5"/>
+      <c r="CO12" s="5"/>
+      <c r="CP12" s="5"/>
+      <c r="CQ12" s="5"/>
+      <c r="CR12" s="5"/>
+      <c r="CS12" s="5"/>
+      <c r="CT12" s="5"/>
+      <c r="CU12" s="5"/>
+      <c r="CV12" s="5"/>
+      <c r="CW12" s="5"/>
+      <c r="CX12" s="5"/>
+      <c r="CY12" s="5"/>
+      <c r="CZ12" s="5"/>
+    </row>
+    <row r="13" spans="1:104" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="H13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="7"/>
-      <c r="BO12" s="7"/>
-      <c r="BP12" s="7"/>
-      <c r="BQ12" s="7"/>
-      <c r="BR12" s="7"/>
-      <c r="BS12" s="7"/>
-      <c r="BT12" s="7"/>
-      <c r="BU12" s="7"/>
-      <c r="BV12" s="7"/>
-      <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
-      <c r="BY12" s="7"/>
-      <c r="BZ12" s="7"/>
-      <c r="CA12" s="7"/>
-      <c r="CB12" s="7"/>
-      <c r="CC12" s="7"/>
-      <c r="CD12" s="7"/>
-      <c r="CE12" s="7"/>
-      <c r="CF12" s="7"/>
-      <c r="CG12" s="7"/>
-      <c r="CH12" s="7"/>
-      <c r="CI12" s="7"/>
-      <c r="CJ12" s="7"/>
-      <c r="CK12" s="7"/>
-      <c r="CL12" s="7"/>
-      <c r="CM12" s="7"/>
-      <c r="CN12" s="7"/>
-      <c r="CO12" s="7"/>
-      <c r="CP12" s="7"/>
-      <c r="CQ12" s="7"/>
-      <c r="CR12" s="7"/>
-      <c r="CS12" s="7"/>
-      <c r="CT12" s="7"/>
-      <c r="CU12" s="7"/>
-      <c r="CV12" s="7"/>
-      <c r="CW12" s="7"/>
-      <c r="CX12" s="7"/>
-      <c r="CY12" s="7"/>
-      <c r="CZ12" s="7"/>
-    </row>
-    <row r="13" spans="1:104" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>148</v>
+      <c r="L13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-      <c r="AP14" s="16"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="16"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="16"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="16"/>
-      <c r="BK14" s="16"/>
-      <c r="BL14" s="16"/>
-      <c r="BM14" s="16"/>
-      <c r="BN14" s="16"/>
-      <c r="BO14" s="16"/>
-      <c r="BP14" s="16"/>
-      <c r="BQ14" s="16"/>
-      <c r="BR14" s="16"/>
-      <c r="BS14" s="16"/>
-      <c r="BT14" s="16"/>
-      <c r="BU14" s="16"/>
-      <c r="BV14" s="16"/>
-      <c r="BW14" s="16"/>
-      <c r="BX14" s="16"/>
-      <c r="BY14" s="16"/>
-      <c r="BZ14" s="16"/>
-      <c r="CA14" s="16"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="16"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="16"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="16"/>
-      <c r="CI14" s="16"/>
-      <c r="CJ14" s="16"/>
-      <c r="CK14" s="16"/>
-      <c r="CL14" s="16"/>
-      <c r="CM14" s="16"/>
-      <c r="CN14" s="16"/>
-      <c r="CO14" s="16"/>
-      <c r="CP14" s="16"/>
-      <c r="CQ14" s="16"/>
-      <c r="CR14" s="16"/>
-      <c r="CS14" s="16"/>
-      <c r="CT14" s="16"/>
-      <c r="CU14" s="16"/>
-      <c r="CV14" s="16"/>
-      <c r="CW14" s="16"/>
-      <c r="CX14" s="16"/>
-      <c r="CY14" s="16"/>
-      <c r="CZ14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="13"/>
+      <c r="BT14" s="13"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="13"/>
+      <c r="CG14" s="13"/>
+      <c r="CH14" s="13"/>
+      <c r="CI14" s="13"/>
+      <c r="CJ14" s="13"/>
+      <c r="CK14" s="13"/>
+      <c r="CL14" s="13"/>
+      <c r="CM14" s="13"/>
+      <c r="CN14" s="13"/>
+      <c r="CO14" s="13"/>
+      <c r="CP14" s="13"/>
+      <c r="CQ14" s="13"/>
+      <c r="CR14" s="13"/>
+      <c r="CS14" s="13"/>
+      <c r="CT14" s="13"/>
+      <c r="CU14" s="13"/>
+      <c r="CV14" s="13"/>
+      <c r="CW14" s="13"/>
+      <c r="CX14" s="13"/>
+      <c r="CY14" s="13"/>
+      <c r="CZ14" s="13"/>
     </row>
     <row r="15" spans="1:104" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="8"/>
-      <c r="BF15" s="8"/>
-      <c r="BG15" s="8"/>
-      <c r="BH15" s="8"/>
-      <c r="BI15" s="8"/>
-      <c r="BJ15" s="8"/>
-      <c r="BK15" s="8"/>
-      <c r="BL15" s="8"/>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="8"/>
-      <c r="BO15" s="8"/>
-      <c r="BP15" s="8"/>
-      <c r="BQ15" s="8"/>
-      <c r="BR15" s="8"/>
-      <c r="BS15" s="8"/>
-      <c r="BT15" s="8"/>
-      <c r="BU15" s="8"/>
-      <c r="BV15" s="8"/>
-      <c r="BW15" s="8"/>
-      <c r="BX15" s="8"/>
-      <c r="BY15" s="8"/>
-      <c r="BZ15" s="8"/>
-      <c r="CA15" s="8"/>
-      <c r="CB15" s="8"/>
-      <c r="CC15" s="8"/>
-      <c r="CD15" s="8"/>
-      <c r="CE15" s="8"/>
-      <c r="CF15" s="8"/>
-      <c r="CG15" s="8"/>
-      <c r="CH15" s="8"/>
-      <c r="CI15" s="8"/>
-      <c r="CJ15" s="8"/>
-      <c r="CK15" s="8"/>
-      <c r="CL15" s="8"/>
-      <c r="CM15" s="8"/>
-      <c r="CN15" s="8"/>
-      <c r="CO15" s="8"/>
-      <c r="CP15" s="8"/>
-      <c r="CQ15" s="8"/>
-      <c r="CR15" s="8"/>
-      <c r="CS15" s="8"/>
-      <c r="CT15" s="8"/>
-      <c r="CU15" s="8"/>
-      <c r="CV15" s="8"/>
-      <c r="CW15" s="8"/>
-      <c r="CX15" s="8"/>
-      <c r="CY15" s="8"/>
-      <c r="CZ15" s="8"/>
+      <c r="F15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="6"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="6"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="6"/>
+      <c r="BZ15" s="6"/>
+      <c r="CA15" s="6"/>
+      <c r="CB15" s="6"/>
+      <c r="CC15" s="6"/>
+      <c r="CD15" s="6"/>
+      <c r="CE15" s="6"/>
+      <c r="CF15" s="6"/>
+      <c r="CG15" s="6"/>
+      <c r="CH15" s="6"/>
+      <c r="CI15" s="6"/>
+      <c r="CJ15" s="6"/>
+      <c r="CK15" s="6"/>
+      <c r="CL15" s="6"/>
+      <c r="CM15" s="6"/>
+      <c r="CN15" s="6"/>
+      <c r="CO15" s="6"/>
+      <c r="CP15" s="6"/>
+      <c r="CQ15" s="6"/>
+      <c r="CR15" s="6"/>
+      <c r="CS15" s="6"/>
+      <c r="CT15" s="6"/>
+      <c r="CU15" s="6"/>
+      <c r="CV15" s="6"/>
+      <c r="CW15" s="6"/>
+      <c r="CX15" s="6"/>
+      <c r="CY15" s="6"/>
+      <c r="CZ15" s="6"/>
     </row>
     <row r="16" spans="1:104" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N5"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
@@ -2526,6 +2570,11 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4170F-3534-4781-9079-DE290E8D45C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1FA7D-92A2-46CE-943E-DA46BF25FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Partial Function</t>
-  </si>
-  <si>
-    <t>FUNC13</t>
   </si>
   <si>
     <t>FUNC14</t>
@@ -427,9 +424,6 @@
   </si>
   <si>
     <t>Logs - Clear</t>
-  </si>
-  <si>
-    <t>Both roles can perform the same functions</t>
   </si>
   <si>
     <t>1. Database (User Data &amp; Logs)
@@ -545,6 +539,27 @@
 2. Disallow special characters associated with SQL statements
 3. Use of Prepared Statements.
 4. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. JPasswordField - Admin Password</t>
+  </si>
+  <si>
+    <t>Logs - Debug Mode</t>
+  </si>
+  <si>
+    <t>The act of clearing logs (and by who) will be logged once the logs have been cleared.</t>
+  </si>
+  <si>
+    <t>1. Page Buttons (Left Panel)
+2. Control Buttons (Top Panel)
+3. Search Function (For Manager)</t>
+  </si>
+  <si>
+    <t>1. Session Tampering</t>
+  </si>
+  <si>
+    <t>1. JButton -  Purchase
+2. JTextField - Quantity</t>
   </si>
 </sst>
 </file>
@@ -649,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -741,30 +756,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -793,15 +784,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,7 +796,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -855,7 +837,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,50 +861,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1214,9 +1175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1231,333 +1192,334 @@
     <col min="9" max="9" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27" style="1" customWidth="1"/>
-    <col min="17" max="102" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="1" customWidth="1"/>
+    <col min="14" max="15" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="102" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="105" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:104" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:104" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="E2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="I2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P2" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="35" t="s">
+      <c r="Q2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="S2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="T2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="V2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="W2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="X2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Z2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="AA2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="35" t="s">
+      <c r="AB2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="35" t="s">
+      <c r="AC2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AD2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AE2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="35" t="s">
+      <c r="AF2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="35" t="s">
+      <c r="AG2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="35" t="s">
+      <c r="AH2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="35" t="s">
+      <c r="AI2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="35" t="s">
+      <c r="AJ2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="35" t="s">
+      <c r="AK2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="35" t="s">
+      <c r="AL2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="35" t="s">
+      <c r="AM2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="35" t="s">
+      <c r="AN2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="35" t="s">
+      <c r="AO2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="35" t="s">
+      <c r="AP2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="35" t="s">
+      <c r="AQ2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="35" t="s">
+      <c r="AR2" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AR2" s="35" t="s">
+      <c r="AS2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="35" t="s">
+      <c r="AT2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="35" t="s">
+      <c r="AU2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="35" t="s">
+      <c r="AV2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="35" t="s">
+      <c r="AW2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="35" t="s">
+      <c r="AX2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="35" t="s">
+      <c r="AY2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="35" t="s">
+      <c r="AZ2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="35" t="s">
+      <c r="BA2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="35" t="s">
+      <c r="BB2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="35" t="s">
+      <c r="BC2" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="35" t="s">
+      <c r="BD2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="BD2" s="35" t="s">
+      <c r="BE2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="BE2" s="35" t="s">
+      <c r="BF2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="35" t="s">
+      <c r="BG2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="35" t="s">
+      <c r="BH2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="BH2" s="35" t="s">
+      <c r="BI2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" s="35" t="s">
+      <c r="BJ2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="35" t="s">
+      <c r="BK2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" s="35" t="s">
+      <c r="BL2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BL2" s="35" t="s">
+      <c r="BM2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="BM2" s="35" t="s">
+      <c r="BN2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="BN2" s="35" t="s">
+      <c r="BO2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BO2" s="35" t="s">
+      <c r="BP2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="BP2" s="35" t="s">
+      <c r="BQ2" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="BQ2" s="35" t="s">
+      <c r="BR2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="BR2" s="35" t="s">
+      <c r="BS2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="BS2" s="35" t="s">
+      <c r="BT2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="BT2" s="35" t="s">
+      <c r="BU2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="BU2" s="35" t="s">
+      <c r="BV2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="BV2" s="35" t="s">
+      <c r="BW2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="BW2" s="35" t="s">
+      <c r="BX2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="BX2" s="35" t="s">
+      <c r="BY2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="BY2" s="35" t="s">
+      <c r="BZ2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="BZ2" s="35" t="s">
+      <c r="CA2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="CA2" s="35" t="s">
+      <c r="CB2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="CB2" s="35" t="s">
+      <c r="CC2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="CC2" s="35" t="s">
+      <c r="CD2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="CD2" s="35" t="s">
+      <c r="CE2" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="CE2" s="35" t="s">
+      <c r="CF2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="CF2" s="35" t="s">
+      <c r="CG2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="CG2" s="35" t="s">
+      <c r="CH2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CH2" s="35" t="s">
+      <c r="CI2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="CI2" s="35" t="s">
+      <c r="CJ2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="CJ2" s="35" t="s">
+      <c r="CK2" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="35" t="s">
+      <c r="CL2" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="CL2" s="35" t="s">
+      <c r="CM2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="CM2" s="35" t="s">
+      <c r="CN2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="CN2" s="35" t="s">
+      <c r="CO2" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="CO2" s="35" t="s">
+      <c r="CP2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="CP2" s="35" t="s">
+      <c r="CQ2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="CQ2" s="35" t="s">
+      <c r="CR2" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="CR2" s="35" t="s">
+      <c r="CS2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="CS2" s="35" t="s">
+      <c r="CT2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="CT2" s="35" t="s">
+      <c r="CU2" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="CU2" s="35" t="s">
+      <c r="CV2" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="CV2" s="35" t="s">
+      <c r="CW2" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="CW2" s="35" t="s">
+      <c r="CX2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="CX2" s="35" t="s">
+      <c r="CY2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="CY2" s="35" t="s">
+      <c r="CZ2" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="CZ2" s="36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
@@ -1565,188 +1527,305 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="CZ3" s="2"/>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:104" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="CZ4" s="2"/>
     </row>
-    <row r="5" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:104" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="H5" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="O5" s="10"/>
-      <c r="P5" s="23"/>
+      <c r="P5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="CZ5" s="2"/>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="H6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="CZ6" s="2"/>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="N7" s="10"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="23"/>
+      <c r="O7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="CZ7" s="2"/>
     </row>
-    <row r="8" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="22"/>
+        <v>121</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="P8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q8" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="Q8" s="10"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1941,44 +2020,56 @@
       <c r="CY9" s="13"/>
       <c r="CZ9" s="13"/>
     </row>
-    <row r="10" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -2069,104 +2160,109 @@
     </row>
     <row r="11" spans="1:104" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="B12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q12" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -2257,49 +2353,55 @@
     </row>
     <row r="13" spans="1:104" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>157</v>
+      <c r="P13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2309,7 +2411,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2412,37 +2514,39 @@
     </row>
     <row r="15" spans="1:104" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -2553,28 +2657,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB1FA7D-92A2-46CE-943E-DA46BF25FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6CE9C-8D7B-4174-889E-F4C2F743CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="160">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -346,10 +346,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>SQL Injection
-User Enumeration</t>
   </si>
   <si>
     <t>Welcome page with associated message and color.
@@ -415,11 +411,6 @@
 3. Session data are set with encryption.</t>
   </si>
   <si>
-    <t>1. Attempted login will be recorded.
-2. Successful login will be recorded.
-3. Session will be set to null or no value.</t>
-  </si>
-  <si>
     <t>Users - Change PW</t>
   </si>
   <si>
@@ -474,9 +465,6 @@
   </si>
   <si>
     <t>2. If role in Session data is not equal to 5, the panel will be set to Login and Session will be reset.</t>
-  </si>
-  <si>
-    <t>Session Tampering</t>
   </si>
   <si>
     <t>1. SQL Injection
@@ -506,9 +494,49 @@
 2. Encrypted Session Data</t>
   </si>
   <si>
+    <t>1. Will require Admin password before changes to DB are executed.
+2. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. Role based viewing/data access</t>
+  </si>
+  <si>
+    <t>1. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. JPasswordField - Admin Password</t>
+  </si>
+  <si>
+    <t>Logs - Debug Mode</t>
+  </si>
+  <si>
+    <t>The act of clearing logs (and by who) will be logged once the logs have been cleared.</t>
+  </si>
+  <si>
+    <t>1. Page Buttons (Left Panel)
+2. Control Buttons (Top Panel)
+3. Search Function (For Manager)</t>
+  </si>
+  <si>
+    <t>1. Session Tampering</t>
+  </si>
+  <si>
+    <t>1. JButton -  Purchase
+2. JTextField - Quantity</t>
+  </si>
+  <si>
     <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
 2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
-3. Disallow special characters associated with SQL statements
+3. Validation - Disallow special characters associated with SQL statements
+4. Hashing - SHA-384 of inputted username &amp; password.
+5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
+7. Use of Prepared Statements.
+8. Logging of Events/Actions</t>
+  </si>
+  <si>
+    <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
+2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
+3. Validation - Disallow special characters associated with SQL statements
 4. Hashing - SHA-384 of inputted username &amp; password.
 5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
 6. Will require Admin password before changes to DB are executed.
@@ -516,50 +544,14 @@
 8. Logging of Events/Actions</t>
   </si>
   <si>
-    <t>1. Will require Admin password before changes to DB are executed.
-2. Logging of Events/Actions</t>
-  </si>
-  <si>
-    <t>1. Role based viewing/data access</t>
-  </si>
-  <si>
-    <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
-2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
-3. Disallow special characters associated with SQL statements
-4. Hashing - SHA-384 of inputted username &amp; password.
-5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
-7. Use of Prepared Statements.
-8. Logging of Events/Actions</t>
-  </si>
-  <si>
-    <t>1. Logging of Events/Actions</t>
-  </si>
-  <si>
     <t>1. Sanitation - Re-encode inputs to UTF-8
-2. Disallow special characters associated with SQL statements
+2. Validation - Disallow special characters associated with SQL statements
 3. Use of Prepared Statements.
 4. Logging of Events/Actions</t>
   </si>
   <si>
-    <t>1. JPasswordField - Admin Password</t>
-  </si>
-  <si>
-    <t>Logs - Debug Mode</t>
-  </si>
-  <si>
-    <t>The act of clearing logs (and by who) will be logged once the logs have been cleared.</t>
-  </si>
-  <si>
-    <t>1. Page Buttons (Left Panel)
-2. Control Buttons (Top Panel)
-3. Search Function (For Manager)</t>
-  </si>
-  <si>
-    <t>1. Session Tampering</t>
-  </si>
-  <si>
-    <t>1. JButton -  Purchase
-2. JTextField - Quantity</t>
+    <t>1. Attempted logout will be recorded.
+2. Session will be set to null or no value.</t>
   </si>
 </sst>
 </file>
@@ -870,20 +862,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1175,15 +1167,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
@@ -1203,322 +1196,322 @@
     <col min="105" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="26" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:104" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:104" s="29" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" s="27" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" s="27" t="s">
+      <c r="P2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AC2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AE2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AF2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="27" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AK2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AL2" s="27" t="s">
+      <c r="AL2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AM2" s="27" t="s">
+      <c r="AM2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="27" t="s">
+      <c r="AN2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AO2" s="27" t="s">
+      <c r="AO2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AP2" s="27" t="s">
+      <c r="AP2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AR2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="27" t="s">
+      <c r="AS2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AT2" s="27" t="s">
+      <c r="AT2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AU2" s="27" t="s">
+      <c r="AU2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" s="27" t="s">
+      <c r="AV2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" s="27" t="s">
+      <c r="AW2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="27" t="s">
+      <c r="AX2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="27" t="s">
+      <c r="AY2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" s="27" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" s="27" t="s">
+      <c r="BA2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="BB2" s="27" t="s">
+      <c r="BB2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="BC2" s="27" t="s">
+      <c r="BC2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BD2" s="27" t="s">
+      <c r="BD2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="27" t="s">
+      <c r="BE2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" s="27" t="s">
+      <c r="BF2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" s="27" t="s">
+      <c r="BG2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="27" t="s">
+      <c r="BH2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="27" t="s">
+      <c r="BI2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="BJ2" s="27" t="s">
+      <c r="BJ2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="BK2" s="27" t="s">
+      <c r="BK2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="27" t="s">
+      <c r="BL2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="BM2" s="27" t="s">
+      <c r="BM2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BN2" s="27" t="s">
+      <c r="BN2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="BO2" s="27" t="s">
+      <c r="BO2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" s="27" t="s">
+      <c r="BP2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="BQ2" s="27" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="BR2" s="27" t="s">
+      <c r="BR2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="BS2" s="27" t="s">
+      <c r="BS2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="BT2" s="27" t="s">
+      <c r="BT2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BU2" s="27" t="s">
+      <c r="BU2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BV2" s="27" t="s">
+      <c r="BV2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="BW2" s="27" t="s">
+      <c r="BW2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BX2" s="27" t="s">
+      <c r="BX2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="BY2" s="27" t="s">
+      <c r="BY2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BZ2" s="27" t="s">
+      <c r="BZ2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="CA2" s="27" t="s">
+      <c r="CA2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="CB2" s="27" t="s">
+      <c r="CB2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="CC2" s="27" t="s">
+      <c r="CC2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="CD2" s="27" t="s">
+      <c r="CD2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="CE2" s="27" t="s">
+      <c r="CE2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="CF2" s="27" t="s">
+      <c r="CF2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="CG2" s="27" t="s">
+      <c r="CG2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="CH2" s="27" t="s">
+      <c r="CH2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="CI2" s="27" t="s">
+      <c r="CI2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="CJ2" s="27" t="s">
+      <c r="CJ2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="CK2" s="27" t="s">
+      <c r="CK2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="CL2" s="27" t="s">
+      <c r="CL2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="CM2" s="27" t="s">
+      <c r="CM2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="CN2" s="27" t="s">
+      <c r="CN2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="CO2" s="27" t="s">
+      <c r="CO2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="CP2" s="27" t="s">
+      <c r="CP2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="CQ2" s="27" t="s">
+      <c r="CQ2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="CR2" s="27" t="s">
+      <c r="CR2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="CS2" s="27" t="s">
+      <c r="CS2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="CT2" s="27" t="s">
+      <c r="CT2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CU2" s="27" t="s">
+      <c r="CU2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="CV2" s="27" t="s">
+      <c r="CV2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="CW2" s="27" t="s">
+      <c r="CW2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="CX2" s="27" t="s">
+      <c r="CX2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CY2" s="27" t="s">
+      <c r="CY2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="CZ2" s="28" t="s">
+      <c r="CZ2" s="26" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1527,52 +1520,52 @@
         <v>4</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CZ3" s="2"/>
     </row>
@@ -1581,52 +1574,52 @@
         <v>11</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CZ4" s="2"/>
     </row>
@@ -1635,195 +1628,195 @@
         <v>6</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="I5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CZ5" s="2"/>
     </row>
-    <row r="6" spans="1:104" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CZ6" s="2"/>
     </row>
-    <row r="7" spans="1:104" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:104" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CZ7" s="2"/>
     </row>
-    <row r="8" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="3"/>
@@ -2025,50 +2018,50 @@
         <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -2163,52 +2156,52 @@
         <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="M11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2216,52 +2209,52 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2356,52 +2349,52 @@
         <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2411,7 +2404,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2517,37 +2510,53 @@
         <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="P15" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q15" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6CE9C-8D7B-4174-889E-F4C2F743CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFC592-B354-4592-B50C-4165436E1343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,9 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFC592-B354-4592-B50C-4165436E1343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C2FDA-6CEC-42D6-B078-5C146AC7D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -420,9 +420,6 @@
     <t>1. Database (User Data &amp; Logs)
 2. java.security - Hashing
 3. java.security - Encryption</t>
-  </si>
-  <si>
-    <t>Requires Admin user to enter PW</t>
   </si>
   <si>
     <t>1. JPasswordField - Admin Password
@@ -552,6 +549,12 @@
   <si>
     <t>1. Attempted logout will be recorded.
 2. Session will be set to null or no value.</t>
+  </si>
+  <si>
+    <t>1. Only Admin users are allowed to access debug mode.</t>
+  </si>
+  <si>
+    <t>Requires Admin user to enter PW to make changes.</t>
   </si>
 </sst>
 </file>
@@ -1167,9 +1170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1254,7 @@
         <v>126</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>14</v>
@@ -1634,7 +1637,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>123</v>
@@ -1686,7 +1689,7 @@
         <v>124</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>123</v>
@@ -1736,7 +1739,7 @@
         <v>124</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>123</v>
@@ -1784,7 +1787,7 @@
         <v>124</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>123</v>
@@ -1798,16 +1801,16 @@
         <v>120</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>120</v>
@@ -1816,7 +1819,7 @@
         <v>120</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="3"/>
@@ -2018,17 +2021,17 @@
         <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="F10" s="5" t="s">
         <v>120</v>
       </c>
@@ -2036,29 +2039,31 @@
         <v>120</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>120</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="N10" s="5"/>
+        <v>149</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="O10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>120</v>
@@ -2159,49 +2164,49 @@
         <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,52 +2214,52 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2349,52 +2354,52 @@
         <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2409,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -2516,7 +2521,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>106</v>
@@ -2537,10 +2542,10 @@
         <v>120</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>120</v>
@@ -2552,7 +2557,7 @@
         <v>120</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>120</v>

--- a/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
+++ b/Case Study 2/CSSECDV - Case Study 2 Access Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ejose\Documents\Github\CSSECDV\Case Study 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C2FDA-6CEC-42D6-B078-5C146AC7D10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A4322-0A17-4AD9-9A96-FF5EEA67F360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="161">
   <si>
     <t>ACCESS MATRIX</t>
   </si>
@@ -458,17 +458,11 @@
 2. Encrypted Session Data</t>
   </si>
   <si>
-    <t>1. Only enabled if Session data states that the current user role is an Admin.</t>
-  </si>
-  <si>
     <t>2. If role in Session data is not equal to 5, the panel will be set to Login and Session will be reset.</t>
   </si>
   <si>
     <t>1. SQL Injection
 2. Session Tampering</t>
-  </si>
-  <si>
-    <t>Unlocked accounts are set back to Client role. Admin must re-instate the user account's role before deployment/use.</t>
   </si>
   <si>
     <t>1. Database (User Data &amp; Logs)
@@ -480,25 +474,12 @@
     <t>Setting (i.e., downgrading) or deleting of own role is disallowed.</t>
   </si>
   <si>
-    <t>1. Disabling of certain buttons on the left-hand panel based on role of user (inherited by other sub pages since it is implemented at Frame level).</t>
-  </si>
-  <si>
     <t>1. Database (User Data &amp; Logs)
 2. Encrypted Session Data</t>
   </si>
   <si>
     <t>1. Database (Product &amp; Logs)
 2. Encrypted Session Data</t>
-  </si>
-  <si>
-    <t>1. Will require Admin password before changes to DB are executed.
-2. Logging of Events/Actions</t>
-  </si>
-  <si>
-    <t>1. Role based viewing/data access</t>
-  </si>
-  <si>
-    <t>1. Logging of Events/Actions</t>
   </si>
   <si>
     <t>1. JPasswordField - Admin Password</t>
@@ -522,39 +503,57 @@
 2. JTextField - Quantity</t>
   </si>
   <si>
-    <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
-2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
-3. Validation - Disallow special characters associated with SQL statements
-4. Hashing - SHA-384 of inputted username &amp; password.
-5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
-7. Use of Prepared Statements.
-8. Logging of Events/Actions</t>
-  </si>
-  <si>
-    <t>1. Sanitation - Re-encode inputs (passwords) to UTF-8
-2. Min Length of 8 (for password) and Max Length of 64 for both username &amp; password.
-3. Validation - Disallow special characters associated with SQL statements
-4. Hashing - SHA-384 of inputted username &amp; password.
-5. Encryption - AES with salt (via AES/CBC/PKCS5Padding)
-6. Will require Admin password before changes to DB are executed.
-7. Use of Prepared Statements.
-8. Logging of Events/Actions</t>
-  </si>
-  <si>
-    <t>1. Sanitation - Re-encode inputs to UTF-8
-2. Validation - Disallow special characters associated with SQL statements
-3. Use of Prepared Statements.
-4. Logging of Events/Actions</t>
-  </si>
-  <si>
     <t>1. Attempted logout will be recorded.
 2. Session will be set to null or no value.</t>
   </si>
   <si>
-    <t>1. Only Admin users are allowed to access debug mode.</t>
-  </si>
-  <si>
     <t>Requires Admin user to enter PW to make changes.</t>
+  </si>
+  <si>
+    <t>1. Sanitation &amp; Validation (disallow characters related to SQL except for PW).
+2. Min Length (8ch PW)
+3. Max Length (64ch Username &amp; PW)
+4. Hashing (SHA2-384) and Encryption (with salt, AES/CBC/PKCS5Padding)
+5. Prepared Statements in SQL
+6. Logging</t>
+  </si>
+  <si>
+    <t>1. Logging</t>
+  </si>
+  <si>
+    <t>2. Role-based Access Control (button disabling).</t>
+  </si>
+  <si>
+    <t>1. Session Validation
+2. Role-based Access Control (button disabling).</t>
+  </si>
+  <si>
+    <t>1. Session Validation (admin only)
+2. Role-based Access Control (button disabling).</t>
+  </si>
+  <si>
+    <t>4. Logging</t>
+  </si>
+  <si>
+    <t>3. Password re-entry when changing contents (i.e., MFA like; w/ Sanitation and Validation)</t>
+  </si>
+  <si>
+    <t>1. Session Validation
+2. Role-based Access Control (button disabling).
+3. Password re-entry when changing contents (i.e., MFA like; w/ Sanitation and Validation)
+4. Logging</t>
+  </si>
+  <si>
+    <t>1. SQL Injection
+2. User Enumeration
+3. DoS (Filling up all user combinations)
+4. Session Tampering</t>
+  </si>
+  <si>
+    <t>1. SQL Injection
+2. Bruteforce Login
+3. User enumeration
+4. Session Tampering</t>
   </si>
 </sst>
 </file>
@@ -1170,9 +1169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CZ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1182,9 +1181,9 @@
     <col min="3" max="3" width="44.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" style="1" customWidth="1"/>
@@ -1254,7 +1253,7 @@
         <v>126</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>14</v>
@@ -1637,7 +1636,7 @@
         <v>124</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>123</v>
@@ -1689,7 +1688,7 @@
         <v>124</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>123</v>
@@ -1739,7 +1738,7 @@
         <v>124</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>123</v>
@@ -1787,7 +1786,7 @@
         <v>124</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>123</v>
@@ -1801,16 +1800,16 @@
         <v>120</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>120</v>
@@ -1819,7 +1818,7 @@
         <v>120</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="3"/>
@@ -2016,7 +2015,7 @@
       <c r="CY9" s="13"/>
       <c r="CZ9" s="13"/>
     </row>
-    <row r="10" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:104" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>101</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>120</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>120</v>
@@ -2048,22 +2047,22 @@
         <v>128</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>120</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>120</v>
@@ -2164,10 +2163,10 @@
         <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>133</v>
@@ -2185,22 +2184,22 @@
         <v>135</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>134</v>
@@ -2209,57 +2208,57 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:104" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:104" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2349,57 +2348,57 @@
       <c r="CY12" s="5"/>
       <c r="CZ12" s="5"/>
     </row>
-    <row r="13" spans="1:104" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:104" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,14 +2408,16 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -2542,10 +2543,10 @@
         <v>120</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>120</v>
@@ -2557,7 +2558,7 @@
         <v>120</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>120</v>
@@ -2654,6 +2655,9 @@
       <c r="A16" s="20" t="s">
         <v>10</v>
       </c>
+      <c r="L16" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
